--- a/Documents/SWP391-Backlog_Group3.xlsx
+++ b/Documents/SWP391-Backlog_Group3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\SWP391\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6661AE0D-D7C7-4177-B2FA-F43653DD5915}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E632D8E-8AC2-4A65-8661-98BC73542BB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="77">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>Create Feedback</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,6 +415,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -805,10 +820,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -823,37 +838,37 @@
     <col min="8" max="229" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
@@ -875,8 +890,11 @@
       <c r="G8" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>61</v>
       </c>
@@ -896,8 +914,11 @@
       <c r="G9" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>62</v>
       </c>
@@ -917,8 +938,11 @@
       <c r="G10" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -940,8 +964,11 @@
       <c r="G11" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -963,8 +990,11 @@
       <c r="G12" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -986,8 +1016,11 @@
       <c r="G13" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -1009,8 +1042,11 @@
       <c r="G14" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -1024,16 +1060,19 @@
         <v>6</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1047,16 +1086,19 @@
         <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
@@ -1078,8 +1120,11 @@
       <c r="G17" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -1101,8 +1146,11 @@
       <c r="G18" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
@@ -1124,8 +1172,11 @@
       <c r="G19" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>56</v>
       </c>
@@ -1147,8 +1198,11 @@
       <c r="G20" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>57</v>
       </c>
@@ -1170,8 +1224,11 @@
       <c r="G21" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>69</v>
       </c>
@@ -1193,8 +1250,11 @@
       <c r="G22" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>58</v>
       </c>
@@ -1216,8 +1276,11 @@
       <c r="G23" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>59</v>
       </c>
@@ -1239,8 +1302,11 @@
       <c r="G24" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
@@ -1262,8 +1328,11 @@
       <c r="G25" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
@@ -1285,8 +1354,11 @@
       <c r="G26" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
@@ -1308,8 +1380,11 @@
       <c r="G27" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>68</v>
       </c>
@@ -1331,8 +1406,11 @@
       <c r="G28" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>70</v>
       </c>
@@ -1354,8 +1432,11 @@
       <c r="G29" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -1377,8 +1458,11 @@
       <c r="G30" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
@@ -1400,8 +1484,11 @@
       <c r="G31" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
@@ -1423,8 +1510,11 @@
       <c r="G32" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>17</v>
       </c>
@@ -1446,8 +1536,11 @@
       <c r="G33" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
@@ -1469,8 +1562,11 @@
       <c r="G34" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>19</v>
       </c>
@@ -1492,8 +1588,11 @@
       <c r="G35" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
@@ -1515,8 +1614,11 @@
       <c r="G36" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>21</v>
       </c>
@@ -1538,8 +1640,11 @@
       <c r="G37" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>22</v>
       </c>
@@ -1561,8 +1666,11 @@
       <c r="G38" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>23</v>
       </c>
@@ -1584,8 +1692,11 @@
       <c r="G39" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>24</v>
       </c>
@@ -1607,8 +1718,11 @@
       <c r="G40" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>25</v>
       </c>
@@ -1630,8 +1744,11 @@
       <c r="G41" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>26</v>
       </c>
@@ -1653,8 +1770,11 @@
       <c r="G42" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>27</v>
       </c>
@@ -1676,8 +1796,11 @@
       <c r="G43" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>28</v>
       </c>
@@ -1699,8 +1822,11 @@
       <c r="G44" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>66</v>
       </c>
@@ -1722,8 +1848,11 @@
       <c r="G45" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>67</v>
       </c>
@@ -1745,8 +1874,11 @@
       <c r="G46" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>73</v>
       </c>
@@ -1767,6 +1899,9 @@
       </c>
       <c r="G47" s="8" t="s">
         <v>46</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/SWP391-Backlog_Group3.xlsx
+++ b/Documents/SWP391-Backlog_Group3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\SWP391\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E632D8E-8AC2-4A65-8661-98BC73542BB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA43AFF5-F823-470E-B7AD-2F77106DB595}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
@@ -363,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -386,13 +386,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,6 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -822,8 +834,8 @@
   </sheetPr>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1553,11 +1565,11 @@
       <c r="D34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>38</v>
+      <c r="E34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>46</v>
@@ -1580,10 +1592,10 @@
         <v>46</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>46</v>

--- a/Documents/SWP391-Backlog_Group3.xlsx
+++ b/Documents/SWP391-Backlog_Group3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\SWP391\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders\FPTU\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA43AFF5-F823-470E-B7AD-2F77106DB595}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0030DE4A-A058-4FE9-B235-003E885E63B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="78">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>View Profile</t>
   </si>
 </sst>
 </file>
@@ -269,8 +272,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -400,7 +403,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
@@ -420,11 +423,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,55 +835,55 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="229" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
@@ -906,7 +909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>61</v>
       </c>
@@ -930,7 +933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>62</v>
       </c>
@@ -954,7 +957,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -968,10 +971,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>6</v>
@@ -980,7 +983,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -994,10 +997,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>6</v>
@@ -1006,7 +1009,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -1020,10 +1023,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>6</v>
@@ -1032,7 +1035,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -1046,10 +1049,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>6</v>
@@ -1058,7 +1061,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -1072,10 +1075,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>6</v>
@@ -1084,7 +1087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1098,10 +1101,10 @@
         <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>6</v>
@@ -1110,7 +1113,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
@@ -1185,10 +1188,10 @@
         <v>6</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>56</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>57</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>69</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>58</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>59</v>
       </c>
@@ -1315,10 +1318,10 @@
         <v>6</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>68</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>70</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
@@ -1497,10 +1500,10 @@
         <v>46</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
@@ -1523,10 +1526,10 @@
         <v>46</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>17</v>
       </c>
@@ -1540,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>19</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
@@ -1630,41 +1633,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>21</v>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>46</v>
@@ -1682,24 +1685,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>46</v>
@@ -1708,139 +1711,139 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="G41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="C42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="G42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="C43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="G43" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="D44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="G44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>35</v>
@@ -1864,9 +1867,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>35</v>
@@ -1878,10 +1881,10 @@
         <v>46</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>46</v>
@@ -1890,12 +1893,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>5</v>
@@ -1913,19 +1916,45 @@
         <v>46</v>
       </c>
       <c r="H47" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D47" xr:uid="{F07339E9-D44D-8E47-91D9-ADD73292BB26}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D48" xr:uid="{F07339E9-D44D-8E47-91D9-ADD73292BB26}">
       <formula1>"Iteration 1, Iteration 2, Iteration 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G47" xr:uid="{DD16DB9A-416B-F24E-A930-C955FCC74FAE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G48" xr:uid="{DD16DB9A-416B-F24E-A930-C955FCC74FAE}">
       <formula1>"Iteration 1, Iteration 2, Iteration 3, Final"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C47" xr:uid="{D8E3F485-0609-C341-A723-993F74FF62FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C48" xr:uid="{D8E3F485-0609-C341-A723-993F74FF62FF}">
       <formula1>"Simple, Medium, Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SWP391-Backlog_Group3.xlsx
+++ b/Documents/SWP391-Backlog_Group3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders\FPTU\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\SWP391\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0030DE4A-A058-4FE9-B235-003E885E63B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0F1F7D-428F-4836-A0AC-3619DE1167BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>Change Password</t>
   </si>
   <si>
-    <t>Admin Edit User Profile</t>
-  </si>
-  <si>
     <t>View User List</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>Change Password UI</t>
   </si>
   <si>
-    <t>Admin Edit User Profile UI</t>
-  </si>
-  <si>
     <t>View User List UI</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
     <t>View Feedback List</t>
   </si>
   <si>
-    <t>Payment UI</t>
-  </si>
-  <si>
     <t>View Service Detail UI</t>
   </si>
   <si>
@@ -265,6 +256,15 @@
   </si>
   <si>
     <t>View Profile</t>
+  </si>
+  <si>
+    <t>Admin Edit User Status UI</t>
+  </si>
+  <si>
+    <t>Checkout UI</t>
+  </si>
+  <si>
+    <t>Admin Edit User Status</t>
   </si>
 </sst>
 </file>
@@ -272,8 +272,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -403,7 +403,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
@@ -423,11 +423,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,53 +837,53 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="229" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="229" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
@@ -906,12 +906,12 @@
         <v>4</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>12</v>
@@ -923,19 +923,19 @@
         <v>6</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>12</v>
@@ -947,45 +947,45 @@
         <v>6</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
@@ -1006,64 +1006,64 @@
         <v>6</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>12</v>
@@ -1078,30 +1078,30 @@
         <v>41</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>39</v>
@@ -1110,374 +1110,374 @@
         <v>6</v>
       </c>
       <c r="H16" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="G28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="G29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="G30" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
@@ -1488,22 +1488,22 @@
         <v>5</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
@@ -1514,22 +1514,22 @@
         <v>5</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>17</v>
       </c>
@@ -1540,22 +1540,22 @@
         <v>7</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
@@ -1566,137 +1566,137 @@
         <v>7</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>43</v>
@@ -1705,244 +1705,244 @@
         <v>37</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1959,7 +1959,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/SWP391-Backlog_Group3.xlsx
+++ b/Documents/SWP391-Backlog_Group3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\SWP391\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0F1F7D-428F-4836-A0AC-3619DE1167BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D5C65E-5275-4E54-BBD8-313190A4C68D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="84">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Remove Service</t>
   </si>
   <si>
-    <t>View Service</t>
-  </si>
-  <si>
     <t>Change Password</t>
   </si>
   <si>
@@ -195,21 +192,9 @@
     <t>Edit Profile UI</t>
   </si>
   <si>
-    <t>Create Service UI</t>
-  </si>
-  <si>
-    <t>Update Service UI</t>
-  </si>
-  <si>
-    <t>Remove Service UI</t>
-  </si>
-  <si>
     <t>Change Password UI</t>
   </si>
   <si>
-    <t>View User List UI</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
@@ -219,21 +204,9 @@
     <t>Feature 11</t>
   </si>
   <si>
-    <t>View Request List UI</t>
-  </si>
-  <si>
     <t>View Feedback List UI</t>
   </si>
   <si>
-    <t>View Request List</t>
-  </si>
-  <si>
-    <t>View Feedback List</t>
-  </si>
-  <si>
-    <t>View Service Detail UI</t>
-  </si>
-  <si>
     <t>Confirm Service UI</t>
   </si>
   <si>
@@ -265,6 +238,51 @@
   </si>
   <si>
     <t>Admin Edit User Status</t>
+  </si>
+  <si>
+    <t>View Request List Admin UI</t>
+  </si>
+  <si>
+    <t>View Request List Supplier UI</t>
+  </si>
+  <si>
+    <t>View User List Admin UI</t>
+  </si>
+  <si>
+    <t>Create Service Supplier UI</t>
+  </si>
+  <si>
+    <t>Update Service Supplier UI</t>
+  </si>
+  <si>
+    <t>Remove Service Supplier UI</t>
+  </si>
+  <si>
+    <t>View Service Detail Customer UI</t>
+  </si>
+  <si>
+    <t>View Service Detail Admin UI</t>
+  </si>
+  <si>
+    <t>View Service Detail Supplier UI</t>
+  </si>
+  <si>
+    <t>View Feedback List Admin</t>
+  </si>
+  <si>
+    <t>View Feedback List CC</t>
+  </si>
+  <si>
+    <t>View Request List Admin</t>
+  </si>
+  <si>
+    <t>View Service Customer</t>
+  </si>
+  <si>
+    <t>View Service Admin</t>
+  </si>
+  <si>
+    <t>View Service Supplier</t>
   </si>
 </sst>
 </file>
@@ -835,10 +853,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -906,12 +924,12 @@
         <v>4</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>12</v>
@@ -923,19 +941,21 @@
         <v>6</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="G9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>12</v>
@@ -947,19 +967,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="G10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
@@ -971,21 +993,21 @@
         <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
@@ -997,21 +1019,21 @@
         <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -1023,21 +1045,21 @@
         <v>6</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>12</v>
@@ -1049,21 +1071,21 @@
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>12</v>
@@ -1075,21 +1097,21 @@
         <v>6</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>12</v>
@@ -1101,21 +1123,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>12</v>
@@ -1127,21 +1149,21 @@
         <v>6</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>12</v>
@@ -1153,21 +1175,21 @@
         <v>6</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>12</v>
@@ -1179,21 +1201,21 @@
         <v>6</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>12</v>
@@ -1205,21 +1227,21 @@
         <v>6</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>12</v>
@@ -1231,21 +1253,21 @@
         <v>6</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>12</v>
@@ -1257,21 +1279,21 @@
         <v>6</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>12</v>
@@ -1283,21 +1305,21 @@
         <v>6</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>12</v>
@@ -1309,21 +1331,21 @@
         <v>6</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -1335,21 +1357,21 @@
         <v>6</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>12</v>
@@ -1361,21 +1383,21 @@
         <v>6</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -1387,21 +1409,21 @@
         <v>6</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>12</v>
@@ -1413,21 +1435,21 @@
         <v>6</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>12</v>
@@ -1439,21 +1461,21 @@
         <v>6</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>12</v>
@@ -1465,212 +1487,212 @@
         <v>6</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="F33" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>39</v>
+      <c r="F34" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>21</v>
+      <c r="A38" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>42</v>
@@ -1679,128 +1701,128 @@
         <v>36</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>22</v>
+      <c r="A39" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>23</v>
+      <c r="A40" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>42</v>
@@ -1809,128 +1831,128 @@
         <v>36</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="G47" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>41</v>
@@ -1939,22 +1961,178 @@
         <v>35</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D48" xr:uid="{F07339E9-D44D-8E47-91D9-ADD73292BB26}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D54" xr:uid="{F07339E9-D44D-8E47-91D9-ADD73292BB26}">
       <formula1>"Iteration 1, Iteration 2, Iteration 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G48" xr:uid="{DD16DB9A-416B-F24E-A930-C955FCC74FAE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G54" xr:uid="{DD16DB9A-416B-F24E-A930-C955FCC74FAE}">
       <formula1>"Iteration 1, Iteration 2, Iteration 3, Final"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C48" xr:uid="{D8E3F485-0609-C341-A723-993F74FF62FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C54" xr:uid="{D8E3F485-0609-C341-A723-993F74FF62FF}">
       <formula1>"Simple, Medium, Complex"</formula1>
     </dataValidation>
   </dataValidations>
